--- a/linear_optimization_problem_setup.xlsx
+++ b/linear_optimization_problem_setup.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leee\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A1B5F-FFED-4FB4-86EB-CF4E728AC315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5160" yWindow="2535" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem Setup" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,8 +74,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +90,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,24 +132,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +196,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -197,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,9 +265,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,90 +441,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>300</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>